--- a/results/mp/deberta/corona/confidence/42/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-0.1/avg_0.004_scores.xlsx
@@ -91,22 +91,22 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>safety</t>
   </si>
   <si>
     <t>care</t>
@@ -1023,25 +1023,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6536796536796536</v>
+        <v>0.6524822695035462</v>
       </c>
       <c r="L17">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="M17">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="N17">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1049,25 +1049,25 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6524822695035462</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L18">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="M18">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1127,25 +1127,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5379939209726444</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L21">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1153,13 +1153,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5294117647058824</v>
+        <v>0.5205882352941177</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="10:17">
